--- a/PhoenixCI/Excel_Template/30310.xlsx
+++ b/PhoenixCI/Excel_Template/30310.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{151756DE-478A-46CB-AACC-535F1796DD6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{228881D1-496C-4A15-9D06-90F276D2331D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="505"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="6705" windowHeight="4260" tabRatio="505"/>
   </bookViews>
   <sheets>
     <sheet name="30311_1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1083,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1091,7 +1090,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1124,6 +1123,9 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,6 +1135,9 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,6 +1145,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1179,8 +1187,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="179" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1422,7 +1434,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-733F-44F2-87A2-188518A8ADDF}"/>
+              <c16:uniqueId val="{00000000-A65E-483C-B45A-8ABE2E8FB001}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1491,7 +1503,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-733F-44F2-87A2-188518A8ADDF}"/>
+              <c16:uniqueId val="{00000001-A65E-483C-B45A-8ABE2E8FB001}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1545,7 +1557,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-733F-44F2-87A2-188518A8ADDF}"/>
+              <c16:uniqueId val="{00000002-A65E-483C-B45A-8ABE2E8FB001}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1559,11 +1571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="412575792"/>
+        <c:axId val="369706928"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="412575792"/>
+        <c:axId val="369706928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +1667,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412575792"/>
+        <c:crossAx val="369706928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -1878,7 +1890,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DECB-445C-98FC-1EEEA39992BC}"/>
+              <c16:uniqueId val="{00000000-D94A-4D1B-AAA9-57FE34B23530}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1947,7 +1959,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DECB-445C-98FC-1EEEA39992BC}"/>
+              <c16:uniqueId val="{00000001-D94A-4D1B-AAA9-57FE34B23530}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2001,7 +2013,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DECB-445C-98FC-1EEEA39992BC}"/>
+              <c16:uniqueId val="{00000002-D94A-4D1B-AAA9-57FE34B23530}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2015,11 +2027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="412572840"/>
+        <c:axId val="370249096"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="412572840"/>
+        <c:axId val="370249096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,7 +2123,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412572840"/>
+        <c:crossAx val="370249096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -2334,7 +2346,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-44E8-4AF6-8A0A-BB6CD194E3AE}"/>
+              <c16:uniqueId val="{00000000-D116-452B-A592-9AB767A871C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2403,7 +2415,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-44E8-4AF6-8A0A-BB6CD194E3AE}"/>
+              <c16:uniqueId val="{00000001-D116-452B-A592-9AB767A871C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2457,7 +2469,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-44E8-4AF6-8A0A-BB6CD194E3AE}"/>
+              <c16:uniqueId val="{00000002-D116-452B-A592-9AB767A871C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2471,11 +2483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="412805760"/>
+        <c:axId val="370253032"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="412805760"/>
+        <c:axId val="370253032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,7 +2579,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412805760"/>
+        <c:crossAx val="370253032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -2798,7 +2810,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0BDA-4B50-BADA-9100F4A0C9C5}"/>
+              <c16:uniqueId val="{00000000-961E-4FDE-833A-D4F9BE67268D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2848,7 +2860,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0BDA-4B50-BADA-9100F4A0C9C5}"/>
+              <c16:uniqueId val="{00000001-961E-4FDE-833A-D4F9BE67268D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2861,7 +2873,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="412803792"/>
+        <c:axId val="370334688"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -2925,7 +2937,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0BDA-4B50-BADA-9100F4A0C9C5}"/>
+              <c16:uniqueId val="{00000002-961E-4FDE-833A-D4F9BE67268D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2985,7 +2997,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0BDA-4B50-BADA-9100F4A0C9C5}"/>
+              <c16:uniqueId val="{00000003-961E-4FDE-833A-D4F9BE67268D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3003,7 +3015,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="412803792"/>
+        <c:axId val="370334688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,7 +3095,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412803792"/>
+        <c:crossAx val="370334688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3295,7 +3307,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0019148A-C2B2-4108-BD30-EABAD3FDADE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B65AE2-775E-49D3-A291-4F50F1B0ADCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,7 +3340,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CD232D-07BB-43CF-8B5A-8EA4547D8AF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3022940-1A89-4838-A73F-021009E89F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3361,7 +3373,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94CF0BE-BA9D-408B-888A-FE5C7A72AFD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB1216F-E5F8-4623-9ADB-C831C035DE81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3406,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7393C3C-F63A-4023-AD06-371C685D25DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6FEBBE-15EC-4AEB-A899-F19865F554AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3746,712 +3758,712 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="32"/>
+    <col min="1" max="1" width="9" style="36"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="83" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.2" hidden="1" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="18"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="10">
         <f>B3-F3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.2" customHeight="1" thickBot="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="33">
+      <c r="A4" s="78"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="37">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="33">
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="37">
         <f t="shared" ref="G4:G32" si="1">F4-F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37">
+      <c r="H4" s="41"/>
+      <c r="I4" s="42">
         <f t="shared" ref="I4:I35" si="2">B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="22"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="30"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="22"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="30"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="22"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="30"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="22"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="30"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="30"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="30"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="30"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="22"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="30"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="30"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="22"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="30"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="22"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="30"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="30"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="22"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="30"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="30"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="22"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="30"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="22"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="30"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="22"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="30"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="22"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="30"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="22"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="30"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="22"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="30"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="5">
         <f>F33-F32</f>
         <v>0</v>
       </c>
-      <c r="H33" s="22"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="6">
         <f>B33-F33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="30"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="5">
         <f>F34-F33</f>
         <v>0</v>
       </c>
-      <c r="H34" s="22"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A35" s="28"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="13"/>
       <c r="C35" s="7">
         <f>B35-B34</f>
         <v>0</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="13"/>
       <c r="G35" s="7">
         <f>F35-F34</f>
         <v>0</v>
       </c>
-      <c r="H35" s="15"/>
+      <c r="H35" s="16"/>
       <c r="I35" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="31"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="11"/>
       <c r="C36" s="3"/>
       <c r="D36" s="12"/>
@@ -4463,169 +4475,169 @@
     </row>
     <row r="37" spans="1:9" ht="17.25" thickBot="1">
       <c r="A37"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
     </row>
     <row r="38" spans="1:9" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80" t="s">
+      <c r="C38" s="84"/>
+      <c r="D38" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="78" t="s">
+      <c r="E38" s="86"/>
+      <c r="F38" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="82"/>
+      <c r="G38" s="87"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A39" s="76"/>
-      <c r="B39" s="61" t="s">
+      <c r="A39" s="81"/>
+      <c r="B39" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="67">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="69">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="63" t="s">
+      <c r="F39" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="65">
+      <c r="G39" s="70">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A40" s="76"/>
-      <c r="B40" s="61" t="s">
+      <c r="A40" s="81"/>
+      <c r="B40" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="71">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="64">
-        <v>0</v>
-      </c>
-      <c r="F40" s="63" t="s">
+      <c r="E40" s="69">
+        <v>0</v>
+      </c>
+      <c r="F40" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="65">
+      <c r="G40" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A41" s="76"/>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="81"/>
+      <c r="B41" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="66">
+      <c r="C41" s="71">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="69">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="65">
+      <c r="G41" s="70">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A42" s="77"/>
-      <c r="B42" s="67" t="s">
+      <c r="A42" s="82"/>
+      <c r="B42" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="73">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="70">
-        <v>0</v>
-      </c>
-      <c r="F42" s="71" t="s">
+      <c r="E42" s="75">
+        <v>0</v>
+      </c>
+      <c r="F42" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="72">
+      <c r="G42" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17.25" thickTop="1">
       <c r="A43"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45"/>
+      <c r="A45" s="35"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47"/>
+      <c r="A47" s="35"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48"/>
+      <c r="A48" s="35"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49"/>
+      <c r="A49" s="35"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50"/>
+      <c r="A50" s="35"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51"/>
+      <c r="A51" s="35"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52"/>
+      <c r="A52" s="35"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53"/>
+      <c r="A53" s="35"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54"/>
+      <c r="A54" s="35"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55"/>
+      <c r="A55" s="35"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56"/>
+      <c r="A56" s="35"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57"/>
+      <c r="A57" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4653,58 +4665,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="32"/>
+    <col min="1" max="1" width="9" style="36"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="83" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="84"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.2" hidden="1" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10">
         <f>B3-F3</f>
@@ -4712,34 +4724,34 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.2" customHeight="1" thickBot="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="33">
+      <c r="A4" s="78"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="37">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="33">
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="37">
         <f t="shared" ref="G4:G32" si="1">F4-F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="42">
         <f t="shared" ref="H4:H35" si="2">B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4750,15 +4762,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4769,15 +4781,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4788,15 +4800,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4807,15 +4819,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4826,15 +4838,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4845,15 +4857,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4864,15 +4876,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4883,15 +4895,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4902,15 +4914,15 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="30"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4921,15 +4933,15 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="30"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4940,15 +4952,15 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="30"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4959,15 +4971,15 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="30"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4978,15 +4990,15 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="30"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4997,15 +5009,15 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="30"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5016,15 +5028,15 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="30"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5035,15 +5047,15 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="30"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5054,15 +5066,15 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="30"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5073,15 +5085,15 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="30"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5092,15 +5104,15 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="30"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5111,15 +5123,15 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="30"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5130,15 +5142,15 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="30"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5149,15 +5161,15 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="30"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5168,15 +5180,15 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="30"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5187,15 +5199,15 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="30"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5206,15 +5218,15 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="30"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5225,15 +5237,15 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="30"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5244,15 +5256,15 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="30"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5263,15 +5275,15 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="30"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="5">
         <f>F33-F32</f>
         <v>0</v>
@@ -5282,15 +5294,15 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="30"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="5">
         <f>F34-F33</f>
         <v>0</v>
@@ -5301,14 +5313,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A35" s="28"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="13"/>
       <c r="C35" s="7">
         <f>B35-B34</f>
         <v>0</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="13"/>
       <c r="G35" s="7">
         <f>F35-F34</f>
@@ -5320,7 +5332,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="31"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="11"/>
       <c r="C36" s="3"/>
       <c r="D36" s="12"/>
@@ -5331,169 +5343,169 @@
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1">
       <c r="A37"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
     </row>
     <row r="38" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80" t="s">
+      <c r="C38" s="84"/>
+      <c r="D38" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="78" t="s">
+      <c r="E38" s="86"/>
+      <c r="F38" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="82"/>
+      <c r="G38" s="87"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A39" s="76"/>
-      <c r="B39" s="61" t="s">
+      <c r="A39" s="81"/>
+      <c r="B39" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="67">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="69">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="63" t="s">
+      <c r="F39" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="65">
+      <c r="G39" s="70">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A40" s="76"/>
-      <c r="B40" s="61" t="s">
+      <c r="A40" s="81"/>
+      <c r="B40" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="71">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="64">
-        <v>0</v>
-      </c>
-      <c r="F40" s="63" t="s">
+      <c r="E40" s="69">
+        <v>0</v>
+      </c>
+      <c r="F40" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="65">
+      <c r="G40" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A41" s="76"/>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="81"/>
+      <c r="B41" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="66">
+      <c r="C41" s="71">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="69">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="65">
+      <c r="G41" s="70">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A42" s="77"/>
-      <c r="B42" s="67" t="s">
+      <c r="A42" s="82"/>
+      <c r="B42" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="73">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="70">
-        <v>0</v>
-      </c>
-      <c r="F42" s="71" t="s">
+      <c r="E42" s="75">
+        <v>0</v>
+      </c>
+      <c r="F42" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="72">
+      <c r="G42" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickTop="1">
       <c r="A43"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45"/>
+      <c r="A45" s="35"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47"/>
+      <c r="A47" s="35"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48"/>
+      <c r="A48" s="35"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49"/>
+      <c r="A49" s="35"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50"/>
+      <c r="A50" s="35"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51"/>
+      <c r="A51" s="35"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52"/>
+      <c r="A52" s="35"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53"/>
+      <c r="A53" s="35"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54"/>
+      <c r="A54" s="35"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55"/>
+      <c r="A55" s="35"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56"/>
+      <c r="A56" s="35"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57"/>
+      <c r="A57" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5521,58 +5533,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="32"/>
+    <col min="1" max="1" width="9" style="36"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="83" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="84"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.2" hidden="1" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10">
         <f>B3-F3</f>
@@ -5580,34 +5592,34 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.2" customHeight="1" thickBot="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="33">
+      <c r="A4" s="78"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="37">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="33">
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="37">
         <f t="shared" ref="G4:G32" si="1">F4-F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="42">
         <f t="shared" ref="H4:H35" si="2">B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5618,15 +5630,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5637,15 +5649,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5656,15 +5668,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5675,15 +5687,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5694,15 +5706,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5713,15 +5725,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5732,15 +5744,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5751,15 +5763,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5770,15 +5782,15 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="30"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5789,15 +5801,15 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="30"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5808,15 +5820,15 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="30"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5827,15 +5839,15 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="30"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5846,15 +5858,15 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="30"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5865,15 +5877,15 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="30"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5884,15 +5896,15 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="30"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5903,15 +5915,15 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="30"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5922,15 +5934,15 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="30"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5941,15 +5953,15 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="30"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5960,15 +5972,15 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="30"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5979,15 +5991,15 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="30"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5998,15 +6010,15 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="30"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6017,15 +6029,15 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="30"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6036,15 +6048,15 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="30"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6055,15 +6067,15 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="30"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6074,15 +6086,15 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="30"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6093,15 +6105,15 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="30"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6112,15 +6124,15 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="30"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6131,15 +6143,15 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="30"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="5">
         <f>F33-F32</f>
         <v>0</v>
@@ -6150,15 +6162,15 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="30"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="5">
         <f>F34-F33</f>
         <v>0</v>
@@ -6169,14 +6181,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A35" s="28"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="13"/>
       <c r="C35" s="7">
         <f>B35-B34</f>
         <v>0</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="13"/>
       <c r="G35" s="7">
         <f>F35-F34</f>
@@ -6188,7 +6200,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="31"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="11"/>
       <c r="C36" s="3"/>
       <c r="D36" s="12"/>
@@ -6199,169 +6211,169 @@
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1">
       <c r="A37"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
     </row>
     <row r="38" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80" t="s">
+      <c r="C38" s="84"/>
+      <c r="D38" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="78" t="s">
+      <c r="E38" s="86"/>
+      <c r="F38" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="82"/>
+      <c r="G38" s="87"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A39" s="76"/>
-      <c r="B39" s="61" t="s">
+      <c r="A39" s="81"/>
+      <c r="B39" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="67">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="69">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="63" t="s">
+      <c r="F39" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="65">
+      <c r="G39" s="70">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A40" s="76"/>
-      <c r="B40" s="61" t="s">
+      <c r="A40" s="81"/>
+      <c r="B40" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="71">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="64">
-        <v>0</v>
-      </c>
-      <c r="F40" s="63" t="s">
+      <c r="E40" s="69">
+        <v>0</v>
+      </c>
+      <c r="F40" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="65">
+      <c r="G40" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A41" s="76"/>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="81"/>
+      <c r="B41" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="66">
+      <c r="C41" s="71">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="69">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="65">
+      <c r="G41" s="70">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A42" s="77"/>
-      <c r="B42" s="67" t="s">
+      <c r="A42" s="82"/>
+      <c r="B42" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="73">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="70">
-        <v>0</v>
-      </c>
-      <c r="F42" s="71" t="s">
+      <c r="E42" s="75">
+        <v>0</v>
+      </c>
+      <c r="F42" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="72">
+      <c r="G42" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickTop="1">
       <c r="A43"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45"/>
+      <c r="A45" s="35"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47"/>
+      <c r="A47" s="35"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48"/>
+      <c r="A48" s="35"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49"/>
+      <c r="A49" s="35"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50"/>
+      <c r="A50" s="35"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51"/>
+      <c r="A51" s="35"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52"/>
+      <c r="A52" s="35"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53"/>
+      <c r="A53" s="35"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54"/>
+      <c r="A54" s="35"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55"/>
+      <c r="A55" s="35"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56"/>
+      <c r="A56" s="35"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57"/>
+      <c r="A57" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6389,672 +6401,672 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="32"/>
+    <col min="1" max="1" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="83" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="85" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="84"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54">
+      <c r="A3" s="32"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59">
         <f>B3-F3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.2" customHeight="1" thickBot="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="43">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="48">
         <f t="shared" ref="C4:C35" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="51">
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="56">
         <f t="shared" ref="G4:G35" si="1">F4-F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="57">
         <f t="shared" ref="H4:H35" si="2">B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="54">
+      <c r="A5" s="32"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="56">
+      <c r="A6" s="33"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="56">
+      <c r="A7" s="33"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="56">
+      <c r="A8" s="33"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="56">
+      <c r="A9" s="33"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="56">
+      <c r="A10" s="33"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="56">
+      <c r="A11" s="33"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="56">
+      <c r="A12" s="33"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="56">
+      <c r="A13" s="33"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="30"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="56">
+      <c r="A14" s="33"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="30"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="56">
+      <c r="A15" s="33"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="30"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="56">
+      <c r="A16" s="33"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="30"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="56">
+      <c r="A17" s="33"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="30"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="56">
+      <c r="A18" s="33"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="30"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="56">
+      <c r="A19" s="33"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="30"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="56">
+      <c r="A20" s="33"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="30"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="56">
+      <c r="A21" s="33"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="30"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="56">
+      <c r="A22" s="33"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="30"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="56">
+      <c r="A23" s="33"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="30"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="56">
+      <c r="A24" s="33"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="30"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="56">
+      <c r="A25" s="33"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="30"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="56">
+      <c r="A26" s="33"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="30"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="56">
+      <c r="A27" s="33"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="30"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="56">
+      <c r="A28" s="33"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="30"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="56">
+      <c r="A29" s="33"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="30"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="56">
+      <c r="A30" s="33"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="30"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="56">
+      <c r="A31" s="33"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="30"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="56">
+      <c r="A32" s="33"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="30"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="56">
+      <c r="A33" s="33"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="30"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="56">
+      <c r="A34" s="33"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="46">
+      <c r="A35" s="31"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="58">
+      <c r="E35" s="15"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="31"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="11"/>
       <c r="C36" s="3"/>
       <c r="D36" s="12"/>
@@ -7064,49 +7076,49 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37"/>
+      <c r="A37" s="35"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38"/>
+      <c r="A38" s="35"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39"/>
+      <c r="A39" s="35"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40"/>
+      <c r="A40" s="35"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41"/>
+      <c r="A41" s="35"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42"/>
+      <c r="A42" s="35"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43"/>
+      <c r="A43" s="35"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45"/>
+      <c r="A45" s="35"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47"/>
+      <c r="A47" s="35"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48"/>
+      <c r="A48" s="35"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49"/>
+      <c r="A49" s="35"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50"/>
+      <c r="A50" s="35"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51"/>
+      <c r="A51" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/PhoenixCI/Excel_Template/30310.xlsx
+++ b/PhoenixCI/Excel_Template/30310.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{228881D1-496C-4A15-9D06-90F276D2331D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{151756DE-478A-46CB-AACC-535F1796DD6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="6705" windowHeight="4260" tabRatio="505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="505"/>
   </bookViews>
   <sheets>
     <sheet name="30311_1" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1082,7 +1083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1090,7 +1091,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1123,9 +1124,6 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,9 +1133,6 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,9 +1140,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1187,12 +1179,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="179" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1434,7 +1422,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A65E-483C-B45A-8ABE2E8FB001}"/>
+              <c16:uniqueId val="{00000000-733F-44F2-87A2-188518A8ADDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1503,7 +1491,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A65E-483C-B45A-8ABE2E8FB001}"/>
+              <c16:uniqueId val="{00000001-733F-44F2-87A2-188518A8ADDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1557,7 +1545,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A65E-483C-B45A-8ABE2E8FB001}"/>
+              <c16:uniqueId val="{00000002-733F-44F2-87A2-188518A8ADDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1571,11 +1559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="369706928"/>
+        <c:axId val="412575792"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="369706928"/>
+        <c:axId val="412575792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1655,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369706928"/>
+        <c:crossAx val="412575792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -1890,7 +1878,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D94A-4D1B-AAA9-57FE34B23530}"/>
+              <c16:uniqueId val="{00000000-DECB-445C-98FC-1EEEA39992BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1959,7 +1947,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D94A-4D1B-AAA9-57FE34B23530}"/>
+              <c16:uniqueId val="{00000001-DECB-445C-98FC-1EEEA39992BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2013,7 +2001,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D94A-4D1B-AAA9-57FE34B23530}"/>
+              <c16:uniqueId val="{00000002-DECB-445C-98FC-1EEEA39992BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2027,11 +2015,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370249096"/>
+        <c:axId val="412572840"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="370249096"/>
+        <c:axId val="412572840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2111,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370249096"/>
+        <c:crossAx val="412572840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -2346,7 +2334,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D116-452B-A592-9AB767A871C9}"/>
+              <c16:uniqueId val="{00000000-44E8-4AF6-8A0A-BB6CD194E3AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2415,7 +2403,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D116-452B-A592-9AB767A871C9}"/>
+              <c16:uniqueId val="{00000001-44E8-4AF6-8A0A-BB6CD194E3AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2469,7 +2457,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D116-452B-A592-9AB767A871C9}"/>
+              <c16:uniqueId val="{00000002-44E8-4AF6-8A0A-BB6CD194E3AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2483,11 +2471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370253032"/>
+        <c:axId val="412805760"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="370253032"/>
+        <c:axId val="412805760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,7 +2567,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370253032"/>
+        <c:crossAx val="412805760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -2810,7 +2798,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-961E-4FDE-833A-D4F9BE67268D}"/>
+              <c16:uniqueId val="{00000000-0BDA-4B50-BADA-9100F4A0C9C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2860,7 +2848,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-961E-4FDE-833A-D4F9BE67268D}"/>
+              <c16:uniqueId val="{00000001-0BDA-4B50-BADA-9100F4A0C9C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2873,7 +2861,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370334688"/>
+        <c:axId val="412803792"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -2937,7 +2925,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-961E-4FDE-833A-D4F9BE67268D}"/>
+              <c16:uniqueId val="{00000002-0BDA-4B50-BADA-9100F4A0C9C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2997,7 +2985,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-961E-4FDE-833A-D4F9BE67268D}"/>
+              <c16:uniqueId val="{00000003-0BDA-4B50-BADA-9100F4A0C9C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3015,7 +3003,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="370334688"/>
+        <c:axId val="412803792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3095,7 +3083,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370334688"/>
+        <c:crossAx val="412803792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3307,7 +3295,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B65AE2-775E-49D3-A291-4F50F1B0ADCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0019148A-C2B2-4108-BD30-EABAD3FDADE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3328,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3022940-1A89-4838-A73F-021009E89F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CD232D-07BB-43CF-8B5A-8EA4547D8AF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3361,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB1216F-E5F8-4623-9ADB-C831C035DE81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94CF0BE-BA9D-408B-888A-FE5C7A72AFD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3394,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6FEBBE-15EC-4AEB-A899-F19865F554AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7393C3C-F63A-4023-AD06-371C685D25DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3758,712 +3746,712 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="36"/>
+    <col min="1" max="1" width="9" style="32"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="88" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.2" hidden="1" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="20"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="10">
         <f>B3-F3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.2" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="37">
+      <c r="A4" s="73"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="33">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="37">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="33">
         <f t="shared" ref="G4:G32" si="1">F4-F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42">
+      <c r="H4" s="36"/>
+      <c r="I4" s="37">
         <f t="shared" ref="I4:I35" si="2">B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="33"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="33"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="33"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="33"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="33"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="25"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="33"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="25"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="33"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="33"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="25"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="33"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="25"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="33"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="25"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="33"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="25"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="33"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="25"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="33"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="25"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="33"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="33"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="33"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="25"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="33"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="25"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="33"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="25"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="33"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="25"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="33"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="5">
         <f>F33-F32</f>
         <v>0</v>
       </c>
-      <c r="H33" s="25"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="6">
         <f>B33-F33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="33"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="5">
         <f>F34-F33</f>
         <v>0</v>
       </c>
-      <c r="H34" s="25"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A35" s="31"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="13"/>
       <c r="C35" s="7">
         <f>B35-B34</f>
         <v>0</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="13"/>
       <c r="G35" s="7">
         <f>F35-F34</f>
         <v>0</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="34"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="11"/>
       <c r="C36" s="3"/>
       <c r="D36" s="12"/>
@@ -4475,169 +4463,169 @@
     </row>
     <row r="37" spans="1:9" ht="17.25" thickBot="1">
       <c r="A37"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="1:9" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="85" t="s">
+      <c r="C38" s="79"/>
+      <c r="D38" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="83" t="s">
+      <c r="E38" s="81"/>
+      <c r="F38" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="87"/>
+      <c r="G38" s="82"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A39" s="81"/>
-      <c r="B39" s="66" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="62">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="64">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="70">
+      <c r="G39" s="65">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A40" s="81"/>
-      <c r="B40" s="66" t="s">
+      <c r="A40" s="76"/>
+      <c r="B40" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="71">
+      <c r="C40" s="66">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="69">
-        <v>0</v>
-      </c>
-      <c r="F40" s="68" t="s">
+      <c r="E40" s="64">
+        <v>0</v>
+      </c>
+      <c r="F40" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="70">
+      <c r="G40" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A41" s="81"/>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="76"/>
+      <c r="B41" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="71">
+      <c r="C41" s="66">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="69">
+      <c r="E41" s="64">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="70">
+      <c r="G41" s="65">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A42" s="82"/>
-      <c r="B42" s="72" t="s">
+      <c r="A42" s="77"/>
+      <c r="B42" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="68">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="74" t="s">
+      <c r="D42" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="75">
-        <v>0</v>
-      </c>
-      <c r="F42" s="76" t="s">
+      <c r="E42" s="70">
+        <v>0</v>
+      </c>
+      <c r="F42" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="77">
+      <c r="G42" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17.25" thickTop="1">
       <c r="A43"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="35"/>
+      <c r="A44"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="35"/>
+      <c r="A45"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="35"/>
+      <c r="A46"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="35"/>
+      <c r="A47"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="35"/>
+      <c r="A48"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="35"/>
+      <c r="A49"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="35"/>
+      <c r="A50"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="35"/>
+      <c r="A51"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="35"/>
+      <c r="A52"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="35"/>
+      <c r="A53"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="35"/>
+      <c r="A54"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="35"/>
+      <c r="A55"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="35"/>
+      <c r="A56"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="35"/>
+      <c r="A57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4665,58 +4653,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="36"/>
+    <col min="1" max="1" width="9" style="32"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="88" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="89"/>
+      <c r="G1" s="84"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.2" hidden="1" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10">
         <f>B3-F3</f>
@@ -4724,34 +4712,34 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.2" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="37">
+      <c r="A4" s="73"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="33">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="37">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="33">
         <f t="shared" ref="G4:G32" si="1">F4-F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="37">
         <f t="shared" ref="H4:H35" si="2">B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4762,15 +4750,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4781,15 +4769,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4800,15 +4788,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4819,15 +4807,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4838,15 +4826,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4857,15 +4845,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4876,15 +4864,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4895,15 +4883,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4914,15 +4902,15 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="33"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4933,15 +4921,15 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="33"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4952,15 +4940,15 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="33"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4971,15 +4959,15 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="33"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4990,15 +4978,15 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="33"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5009,15 +4997,15 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="33"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5028,15 +5016,15 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="33"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5047,15 +5035,15 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="33"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5066,15 +5054,15 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="33"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5085,15 +5073,15 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="33"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5104,15 +5092,15 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5123,15 +5111,15 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5142,15 +5130,15 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="33"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5161,15 +5149,15 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="33"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5180,15 +5168,15 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="33"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5199,15 +5187,15 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="33"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5218,15 +5206,15 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="33"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5237,15 +5225,15 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="33"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5256,15 +5244,15 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="33"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5275,15 +5263,15 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="33"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="5">
         <f>F33-F32</f>
         <v>0</v>
@@ -5294,15 +5282,15 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="33"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="5">
         <f>F34-F33</f>
         <v>0</v>
@@ -5313,14 +5301,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A35" s="31"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="13"/>
       <c r="C35" s="7">
         <f>B35-B34</f>
         <v>0</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="13"/>
       <c r="G35" s="7">
         <f>F35-F34</f>
@@ -5332,7 +5320,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="34"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="11"/>
       <c r="C36" s="3"/>
       <c r="D36" s="12"/>
@@ -5343,169 +5331,169 @@
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1">
       <c r="A37"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="85" t="s">
+      <c r="C38" s="79"/>
+      <c r="D38" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="83" t="s">
+      <c r="E38" s="81"/>
+      <c r="F38" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="87"/>
+      <c r="G38" s="82"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A39" s="81"/>
-      <c r="B39" s="66" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="62">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="64">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="70">
+      <c r="G39" s="65">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A40" s="81"/>
-      <c r="B40" s="66" t="s">
+      <c r="A40" s="76"/>
+      <c r="B40" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="71">
+      <c r="C40" s="66">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="69">
-        <v>0</v>
-      </c>
-      <c r="F40" s="68" t="s">
+      <c r="E40" s="64">
+        <v>0</v>
+      </c>
+      <c r="F40" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="70">
+      <c r="G40" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A41" s="81"/>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="76"/>
+      <c r="B41" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="71">
+      <c r="C41" s="66">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="69">
+      <c r="E41" s="64">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="70">
+      <c r="G41" s="65">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A42" s="82"/>
-      <c r="B42" s="72" t="s">
+      <c r="A42" s="77"/>
+      <c r="B42" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="68">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="74" t="s">
+      <c r="D42" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="75">
-        <v>0</v>
-      </c>
-      <c r="F42" s="76" t="s">
+      <c r="E42" s="70">
+        <v>0</v>
+      </c>
+      <c r="F42" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="77">
+      <c r="G42" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickTop="1">
       <c r="A43"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="35"/>
+      <c r="A44"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="35"/>
+      <c r="A45"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="35"/>
+      <c r="A46"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="35"/>
+      <c r="A47"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="35"/>
+      <c r="A48"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="35"/>
+      <c r="A49"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="35"/>
+      <c r="A50"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="35"/>
+      <c r="A51"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="35"/>
+      <c r="A52"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="35"/>
+      <c r="A53"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="35"/>
+      <c r="A54"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="35"/>
+      <c r="A55"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="35"/>
+      <c r="A56"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="35"/>
+      <c r="A57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5533,58 +5521,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="36"/>
+    <col min="1" max="1" width="9" style="32"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="88" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="89"/>
+      <c r="G1" s="84"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.2" hidden="1" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10">
         <f>B3-F3</f>
@@ -5592,34 +5580,34 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.2" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="37">
+      <c r="A4" s="73"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="33">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="37">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="33">
         <f t="shared" ref="G4:G32" si="1">F4-F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="37">
         <f t="shared" ref="H4:H35" si="2">B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5630,15 +5618,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5649,15 +5637,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5668,15 +5656,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5687,15 +5675,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5706,15 +5694,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5725,15 +5713,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5744,15 +5732,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5763,15 +5751,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5782,15 +5770,15 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="33"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5801,15 +5789,15 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="33"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5820,15 +5808,15 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="33"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5839,15 +5827,15 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="33"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5858,15 +5846,15 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="33"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5877,15 +5865,15 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="33"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5896,15 +5884,15 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="33"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5915,15 +5903,15 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="33"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5934,15 +5922,15 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="33"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5953,15 +5941,15 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="33"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5972,15 +5960,15 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5991,15 +5979,15 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6010,15 +5998,15 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="33"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6029,15 +6017,15 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="33"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6048,15 +6036,15 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="33"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6067,15 +6055,15 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="33"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6086,15 +6074,15 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="33"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6105,15 +6093,15 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="33"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6124,15 +6112,15 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="33"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6143,15 +6131,15 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="33"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="5">
         <f>F33-F32</f>
         <v>0</v>
@@ -6162,15 +6150,15 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="33"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="5">
         <f>F34-F33</f>
         <v>0</v>
@@ -6181,14 +6169,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A35" s="31"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="13"/>
       <c r="C35" s="7">
         <f>B35-B34</f>
         <v>0</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="13"/>
       <c r="G35" s="7">
         <f>F35-F34</f>
@@ -6200,7 +6188,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="34"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="11"/>
       <c r="C36" s="3"/>
       <c r="D36" s="12"/>
@@ -6211,169 +6199,169 @@
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1">
       <c r="A37"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="85" t="s">
+      <c r="C38" s="79"/>
+      <c r="D38" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="83" t="s">
+      <c r="E38" s="81"/>
+      <c r="F38" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="87"/>
+      <c r="G38" s="82"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A39" s="81"/>
-      <c r="B39" s="66" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="62">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="64">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="70">
+      <c r="G39" s="65">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A40" s="81"/>
-      <c r="B40" s="66" t="s">
+      <c r="A40" s="76"/>
+      <c r="B40" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="71">
+      <c r="C40" s="66">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="69">
-        <v>0</v>
-      </c>
-      <c r="F40" s="68" t="s">
+      <c r="E40" s="64">
+        <v>0</v>
+      </c>
+      <c r="F40" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="70">
+      <c r="G40" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A41" s="81"/>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="76"/>
+      <c r="B41" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="71">
+      <c r="C41" s="66">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="69">
+      <c r="E41" s="64">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="70">
+      <c r="G41" s="65">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A42" s="82"/>
-      <c r="B42" s="72" t="s">
+      <c r="A42" s="77"/>
+      <c r="B42" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="68">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="74" t="s">
+      <c r="D42" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="75">
-        <v>0</v>
-      </c>
-      <c r="F42" s="76" t="s">
+      <c r="E42" s="70">
+        <v>0</v>
+      </c>
+      <c r="F42" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="77">
+      <c r="G42" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickTop="1">
       <c r="A43"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="35"/>
+      <c r="A44"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="35"/>
+      <c r="A45"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="35"/>
+      <c r="A46"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="35"/>
+      <c r="A47"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="35"/>
+      <c r="A48"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="35"/>
+      <c r="A49"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="35"/>
+      <c r="A50"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="35"/>
+      <c r="A51"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="35"/>
+      <c r="A52"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="35"/>
+      <c r="A53"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="35"/>
+      <c r="A54"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="35"/>
+      <c r="A55"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="35"/>
+      <c r="A56"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="35"/>
+      <c r="A57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6401,672 +6389,672 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="36"/>
+    <col min="1" max="1" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="88" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="90" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="89"/>
+      <c r="G1" s="84"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59">
+      <c r="A3" s="29"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54">
         <f>B3-F3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.2" customHeight="1" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="48">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="43">
         <f t="shared" ref="C4:C35" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="56">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="51">
         <f t="shared" ref="G4:G35" si="1">F4-F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="52">
         <f t="shared" ref="H4:H35" si="2">B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="59">
+      <c r="A5" s="29"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="61">
+      <c r="A6" s="30"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="61">
+      <c r="A7" s="30"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="61">
+      <c r="A8" s="30"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="61">
+      <c r="A9" s="30"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="61">
+      <c r="A10" s="30"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="61">
+      <c r="A11" s="30"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="61">
+      <c r="A12" s="30"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.2" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="61">
+      <c r="A13" s="30"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="33"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="61">
+      <c r="A14" s="30"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="33"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="61">
+      <c r="A15" s="30"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="33"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="61">
+      <c r="A16" s="30"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="33"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="61">
+      <c r="A17" s="30"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="33"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="61">
+      <c r="A18" s="30"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="33"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="61">
+      <c r="A19" s="30"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="33"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="61">
+      <c r="A20" s="30"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="33"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="61">
+      <c r="A21" s="30"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="33"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="61">
+      <c r="A22" s="30"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="33"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="61">
+      <c r="A23" s="30"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="61">
+      <c r="A24" s="30"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="61">
+      <c r="A25" s="30"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="33"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="61">
+      <c r="A26" s="30"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="33"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="61">
+      <c r="A27" s="30"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="33"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="61">
+      <c r="A28" s="30"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="33"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="61">
+      <c r="A29" s="30"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="33"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="61">
+      <c r="A30" s="30"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="33"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="61">
+      <c r="A31" s="30"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="33"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="61">
+      <c r="A32" s="30"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="33"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="61">
+      <c r="A33" s="30"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="33"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="61">
+      <c r="A34" s="30"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="51">
+      <c r="A35" s="28"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="63">
+      <c r="E35" s="14"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="34"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="11"/>
       <c r="C36" s="3"/>
       <c r="D36" s="12"/>
@@ -7076,49 +7064,49 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="35"/>
+      <c r="A37"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="35"/>
+      <c r="A38"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="35"/>
+      <c r="A39"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="35"/>
+      <c r="A40"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="35"/>
+      <c r="A41"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="35"/>
+      <c r="A42"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="35"/>
+      <c r="A43"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="35"/>
+      <c r="A44"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="35"/>
+      <c r="A45"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="35"/>
+      <c r="A46"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="35"/>
+      <c r="A47"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="35"/>
+      <c r="A48"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="35"/>
+      <c r="A49"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="35"/>
+      <c r="A50"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="35"/>
+      <c r="A51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
